--- a/GameDesign/데이터 테이블/EnemyStatTable.xlsx
+++ b/GameDesign/데이터 테이블/EnemyStatTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Team_Pearl\GameDesign\데이터 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A4430B-B004-44FF-9E15-1BA448385BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5B207-9EE3-48BA-90D8-7860D3F86D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-225" windowWidth="29040" windowHeight="15840" xr2:uid="{C644761C-88A2-41D8-834C-C39393957843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Chatper</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rapid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,7 +66,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL</t>
+    <t>Rapid(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,12 +485,13 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.625" style="1" customWidth="1"/>
@@ -467,16 +512,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -528,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -554,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -580,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -606,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -632,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -658,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -684,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -710,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -736,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -762,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -788,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/데이터 테이블/EnemyStatTable.xlsx
+++ b/GameDesign/데이터 테이블/EnemyStatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Team_Pearl\GameDesign\데이터 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5B207-9EE3-48BA-90D8-7860D3F86D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20F1A5-6489-4D6B-BD46-FEDF2F81873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-225" windowWidth="29040" windowHeight="15840" xr2:uid="{C644761C-88A2-41D8-834C-C39393957843}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C644761C-88A2-41D8-834C-C39393957843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Chatper</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,26 @@
   </si>
   <si>
     <t>3_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD8186F-1BCA-4BF7-BD76-A8107A735215}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,10 +515,12 @@
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +545,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -549,8 +577,14 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -575,8 +609,14 @@
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -601,8 +641,14 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -627,8 +673,14 @@
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -653,8 +705,14 @@
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -679,8 +737,14 @@
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -705,8 +769,14 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -731,8 +801,14 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -757,8 +833,14 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -783,8 +865,14 @@
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -809,8 +897,14 @@
       <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -834,6 +928,12 @@
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
